--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_18-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_18-47.xlsx
@@ -110,6 +110,12 @@
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
   </si>
   <si>
     <t>ONE ALPHA 0.25MCG 30 CAPS</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
     <t>ORS 10 SACHET</t>
@@ -1427,13 +1436,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1445,7 +1454,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1453,17 +1462,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>82.920000000000002</v>
+        <v>41</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1479,17 +1488,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>17</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1497,7 +1506,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1505,17 +1514,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1523,7 +1532,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1531,17 +1540,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1563,11 +1572,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.66000000000000003</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1589,11 +1598,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1609,13 +1618,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1627,7 +1636,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1641,7 +1650,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1653,7 +1662,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1667,7 +1676,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1679,7 +1688,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1687,17 +1696,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1713,17 +1722,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1731,7 +1740,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1739,13 +1748,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1757,7 +1766,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1765,13 +1774,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1783,7 +1792,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1791,13 +1800,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>169.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1809,7 +1818,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1817,13 +1826,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>54</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1835,7 +1844,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1843,13 +1852,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1875,11 +1884,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1895,13 +1904,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>9</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1913,7 +1922,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1921,17 +1930,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>69.5</v>
+        <v>9</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1939,7 +1948,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1947,17 +1956,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1965,7 +1974,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1973,17 +1982,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>58</v>
+        <v>86.5</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1991,7 +2000,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1999,13 +2008,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -2017,7 +2026,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2025,17 +2034,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>38.5</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2051,17 +2060,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2069,7 +2078,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2077,13 +2086,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2095,7 +2104,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2103,13 +2112,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2121,7 +2130,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2129,17 +2138,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2147,7 +2156,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2155,17 +2164,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2173,7 +2182,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2181,13 +2190,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2207,17 +2216,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2225,7 +2234,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2233,17 +2242,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2251,7 +2260,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2259,17 +2268,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2277,7 +2286,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2285,17 +2294,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2303,7 +2312,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2311,17 +2320,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>4</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2337,17 +2346,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2355,7 +2364,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2363,17 +2372,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.5</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2389,17 +2398,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2407,7 +2416,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2415,17 +2424,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2447,7 +2456,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2467,17 +2476,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2485,7 +2494,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2493,13 +2502,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2511,7 +2520,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2525,7 +2534,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2537,7 +2546,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2551,7 +2560,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2563,7 +2572,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2577,7 +2586,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2589,7 +2598,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2597,13 +2606,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2615,7 +2624,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2623,13 +2632,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2641,7 +2650,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2649,17 +2658,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>134.40000000000001</v>
+        <v>24</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2667,7 +2676,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2675,13 +2684,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2693,7 +2702,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2701,17 +2710,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>20</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2719,7 +2728,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2733,7 +2742,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2745,7 +2754,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2753,13 +2762,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2771,7 +2780,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2779,17 +2788,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2797,7 +2806,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2805,17 +2814,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2823,7 +2832,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2831,17 +2840,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>74.689999999999998</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2849,7 +2858,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2857,17 +2866,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>0.33000000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2875,7 +2884,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2883,17 +2892,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>18</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2901,7 +2910,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2909,17 +2918,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>24.960000000000001</v>
+        <v>128</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2927,7 +2936,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2935,17 +2944,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2953,7 +2962,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2961,13 +2970,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>69</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -2979,7 +2988,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2987,17 +2996,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>102.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3005,7 +3014,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3019,11 +3028,11 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3039,13 +3048,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3057,7 +3066,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3065,17 +3074,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>78.400000000000006</v>
+        <v>168</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3091,13 +3100,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3109,7 +3118,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3117,17 +3126,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>10</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3149,11 +3158,11 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3175,11 +3184,11 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3201,11 +3210,11 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3221,17 +3230,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3247,17 +3256,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3265,7 +3274,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3273,17 +3282,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3299,17 +3308,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3317,7 +3326,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3325,17 +3334,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3351,51 +3360,103 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="K96" s="11">
-        <v>5629.9399999999996</v>
-      </c>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="12">
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
         <v>127</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c t="s" r="F97" s="13">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
         <v>128</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c t="s" r="I97" s="15">
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>35</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c r="N96" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
         <v>129</v>
       </c>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>43</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>30</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="K98" s="11">
+        <v>5693.9399999999996</v>
+      </c>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c t="s" r="A99" s="12">
+        <v>130</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c t="s" r="F99" s="13">
+        <v>131</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c t="s" r="I99" s="15">
+        <v>132</v>
+      </c>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="293">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3679,10 +3740,16 @@
     <mergeCell ref="B95:G95"/>
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:N99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
